--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="21540" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -31,7 +31,10 @@
     <t>OrignialCross</t>
   </si>
   <si>
-    <t>MultilingualCross</t>
+    <t>MonolingualCross</t>
+  </si>
+  <si>
+    <t>MultilingualCross - Knowledge Sharing</t>
   </si>
   <si>
     <t>Hahackathon</t>
@@ -57,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,13 +77,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,22 +91,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,40 +142,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,45 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,97 +227,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,85 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +425,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -442,17 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -464,6 +467,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,162 +518,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,14 +1000,15 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1023,18 +1027,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.922</v>
@@ -1046,12 +1053,15 @@
         <v>0.825</v>
       </c>
       <c r="F2">
+        <v>0.835</v>
+      </c>
+      <c r="G2">
         <v>0.856</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0.902</v>
@@ -1063,15 +1073,18 @@
         <v>0.774</v>
       </c>
       <c r="F3">
+        <v>0.791</v>
+      </c>
+      <c r="G3">
         <v>0.821</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.963</v>
@@ -1083,13 +1096,16 @@
         <v>0.719</v>
       </c>
       <c r="F4">
+        <v>0.714</v>
+      </c>
+      <c r="G4">
         <v>0.861</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0.928</v>
@@ -1101,15 +1117,18 @@
         <v>0.561</v>
       </c>
       <c r="F5">
+        <v>0.566</v>
+      </c>
+      <c r="G5">
         <v>0.755</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.778</v>
@@ -1121,13 +1140,16 @@
         <v>0.554</v>
       </c>
       <c r="F6">
+        <v>0.45</v>
+      </c>
+      <c r="G6">
         <v>0.641</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0.773</v>
@@ -1139,15 +1161,18 @@
         <v>0.534</v>
       </c>
       <c r="F7">
+        <v>0.545</v>
+      </c>
+      <c r="G7">
         <v>0.688</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.878</v>
@@ -1159,13 +1184,16 @@
         <v>0.734</v>
       </c>
       <c r="F8">
+        <v>0.781</v>
+      </c>
+      <c r="G8">
         <v>0.803</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.877</v>
@@ -1177,6 +1205,9 @@
         <v>0.67</v>
       </c>
       <c r="F9">
+        <v>0.733</v>
+      </c>
+      <c r="G9">
         <v>0.774</v>
       </c>
     </row>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="8535"/>
+    <workbookView windowWidth="25200" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
   <si>
+    <t>Support</t>
+  </si>
+  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>Original</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
     <t>BackT</t>
   </si>
   <si>
-    <t>OrignialCross</t>
+    <t>OrignialCross (MUltilingual model without knowledge sharing)</t>
   </si>
   <si>
     <t>MonolingualCross</t>
@@ -59,11 +65,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,6 +84,60 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +151,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -97,6 +174,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -105,22 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -128,97 +212,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,19 +234,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,163 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,26 +431,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,17 +449,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,26 +497,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,147 +516,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -997,28 +1016,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="35.25" customWidth="1"/>
+    <col min="1" max="2" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="55.875" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1027,196 +1046,247 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.922</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="3">
+        <v>0.016</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.922</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.825</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.835</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.856</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="2:9">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.902</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
+        <v>0.018</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.901</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.774</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.791</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.821</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4516</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="D4" s="3">
         <v>0.963</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="3">
+        <v>0.004</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.962</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.719</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.714</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.861</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.928</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="3">
+        <v>0.007</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.927</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.561</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.566</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.755</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <f>88+88</f>
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.778</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.764</v>
+      </c>
+      <c r="G6">
+        <v>0.554</v>
+      </c>
+      <c r="H6">
+        <v>0.45</v>
+      </c>
+      <c r="I6">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0.778</v>
-      </c>
-      <c r="D6">
-        <v>0.764</v>
-      </c>
-      <c r="E6">
-        <v>0.554</v>
-      </c>
-      <c r="F6">
-        <v>0.45</v>
-      </c>
-      <c r="G6">
-        <v>0.641</v>
+      <c r="D7" s="3">
+        <v>0.773</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.062</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.761</v>
+      </c>
+      <c r="G7">
+        <v>0.534</v>
+      </c>
+      <c r="H7">
+        <v>0.545</v>
+      </c>
+      <c r="I7">
+        <v>0.688</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0.773</v>
-      </c>
-      <c r="D7">
-        <v>0.761</v>
-      </c>
-      <c r="E7">
-        <v>0.534</v>
-      </c>
-      <c r="F7">
-        <v>0.545</v>
-      </c>
-      <c r="G7">
-        <v>0.688</v>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.009</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.876</v>
+      </c>
+      <c r="G8">
+        <v>0.734</v>
+      </c>
+      <c r="H8">
+        <v>0.781</v>
+      </c>
+      <c r="I8">
+        <v>0.803</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0.878</v>
-      </c>
-      <c r="D8">
-        <v>0.876</v>
-      </c>
-      <c r="E8">
-        <v>0.734</v>
-      </c>
-      <c r="F8">
-        <v>0.781</v>
-      </c>
-      <c r="G8">
-        <v>0.803</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
         <v>0.877</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="3">
+        <v>0.008</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.875</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.67</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.733</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.774</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
